--- a/bioprojects/roboust_ants_PRJNA304722/SraRunTable.xlsx
+++ b/bioprojects/roboust_ants_PRJNA304722/SraRunTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/lab_files/projects/seesaw_test/by_project/roboust_ants_PRJNA304722/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/invert_meth_and_transcription/bioprojects/roboust_ants_PRJNA304722/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3711F50-433E-ED4B-8B77-FEE2AD4E4B88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2146F32E-4C68-3549-B23C-AD058292C07C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="9940" windowWidth="37560" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="2820" windowWidth="37560" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SraRunTable" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="174">
   <si>
     <t>Assay_Type</t>
   </si>
@@ -480,15 +480,6 @@
     <t>Brood care phase</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
@@ -517,6 +508,42 @@
   </si>
   <si>
     <t>SRR2977182_1</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>treatInfo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>control1</t>
+  </si>
+  <si>
+    <t>treated1</t>
+  </si>
+  <si>
+    <t>control2</t>
+  </si>
+  <si>
+    <t>treated2</t>
+  </si>
+  <si>
+    <t>control3</t>
+  </si>
+  <si>
+    <t>treated3</t>
+  </si>
+  <si>
+    <t>control4</t>
+  </si>
+  <si>
+    <t>treated4</t>
   </si>
 </sst>
 </file>
@@ -3576,10 +3603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F3C4D-CC85-0749-8A33-755555BC2E48}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3587,103 +3614,130 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
-        <v>152</v>
+      <c r="B2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>151</v>
       </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>150</v>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3696,20 +3750,20 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3717,7 +3771,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>151</v>
@@ -3728,7 +3782,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>150</v>
@@ -3739,7 +3793,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>151</v>
@@ -3750,7 +3804,7 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>150</v>
@@ -3761,7 +3815,7 @@
         <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>151</v>
@@ -3772,7 +3826,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>150</v>
@@ -3783,7 +3837,7 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>151</v>
@@ -3794,7 +3848,7 @@
         <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>150</v>
